--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/15/seed4/result_data_RandomForest.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.185</v>
+        <v>-13.0986</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.790299999999997</v>
+        <v>5.727899999999995</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.7239</v>
+        <v>-10.64310000000001</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.8332</v>
+        <v>-13.5291</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.221099999999996</v>
+        <v>5.963000000000001</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.9991</v>
+        <v>8.892400000000002</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.7703</v>
+        <v>-12.9604</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,10 +890,10 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.830100000000003</v>
+        <v>6.026300000000004</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.8447</v>
+        <v>-12.7426</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.10430000000001</v>
+        <v>-11.34390000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.828300000000006</v>
+        <v>9.064199999999996</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.3937</v>
+        <v>-13.1064</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.6821</v>
+        <v>-12.4215</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.8793</v>
+        <v>-11.7938</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.2745</v>
+        <v>-11.25730000000001</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.7661</v>
+        <v>-13.61979999999998</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1604,10 +1604,10 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.260899999999992</v>
+        <v>5.966699999999994</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.3428</v>
+        <v>-11.26070000000001</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,7 +1624,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.5048</v>
+        <v>-11.4965</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.0844</v>
+        <v>5.202400000000003</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.879500000000002</v>
+        <v>9.7652</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.8848</v>
+        <v>-12.9741</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.137200000000002</v>
+        <v>4.895799999999999</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.932699999999995</v>
+        <v>5.286999999999995</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.30359999999999</v>
+        <v>-14.0355</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.207199999999998</v>
+        <v>5.576400000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.3458</v>
+        <v>-13.23590000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
